--- a/examples/WealthDistribution/data/excel_source/scenarios.xlsx
+++ b/examples/WealthDistribution/data/excel_source/scenarios.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12957\Documents\Developing\Python\melodie\examples\Wealth-Distribution-ParamFromExcel\data\excel_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\WealthDistribution\data\excel_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E958E081-CD67-4C1C-96F8-651FE7A2D441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15710" windowHeight="12230"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,50 +34,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>agent_account_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_account_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_productivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rich_win_prob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>periods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agent_account_min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agent_account_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agent_productivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rich_win_prob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number_of_run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -139,7 +137,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,26 +448,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,29 +475,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -529,7 +527,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -559,38 +557,20 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>300</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>200</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="3">
-        <v>100</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.8</v>
-      </c>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -601,8 +581,8 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -613,7 +593,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -625,18 +605,6 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/WealthDistribution/data/excel_source/scenarios.xlsx
+++ b/examples/WealthDistribution/data/excel_source/scenarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\WealthDistribution\data\excel_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12957\Documents\Developing\Python\melodie\examples\WealthDistribution\data\excel_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFDE66B-6658-4DAF-B376-244715109B9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15710" windowHeight="12230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -64,19 +65,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -88,7 +89,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,12 +99,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,7 +117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -132,12 +127,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,26 +440,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,12 +489,12 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -527,15 +519,15 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
@@ -557,52 +549,124 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.8</v>
+      </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.9</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.9</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.9</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
   </sheetData>
